--- a/assignments/A1/Book1(AutoRecovered).xlsx
+++ b/assignments/A1/Book1(AutoRecovered).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yangj\Desktop\Uppsala University\Parallel and Distributed Programming\PDP\assignments\A1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3352AA9-3B24-4673-A073-9F05943F0035}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F873D6-BF23-4DF1-B802-C638EF324542}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2DE06B4D-F0AD-4ED7-AE9E-FF8C4EADD1D1}"/>
   </bookViews>
@@ -19,6 +19,11 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -177,9 +182,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" altLang="zh-CN"/>
-              <a:t>Scaled Speedup</a:t>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Weak Scalability</a:t>
             </a:r>
+            <a:endParaRPr lang="en-GB" altLang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -245,6 +251,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$19:$B$24</c:f>
@@ -282,19 +291,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5137620935846641</c:v>
+                  <c:v>0.48623790641533593</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2761241707263031</c:v>
+                  <c:v>0.24129194309123228</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3610378986861367</c:v>
+                  <c:v>0.12779242026277277</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3313616526737517</c:v>
+                  <c:v>9.5519763903749721E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.620819551520663</c:v>
+                  <c:v>2.5278696565289152E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -302,7 +311,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0D7B-493B-8038-8BE0BDBE0207}"/>
+              <c16:uniqueId val="{00000000-0157-497B-AF06-1D1D80273D75}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -322,6 +331,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$19:$B$24</c:f>
@@ -359,19 +371,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -379,23 +391,24 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0D7B-493B-8038-8BE0BDBE0207}"/>
+              <c16:uniqueId val="{00000001-0157-497B-AF06-1D1D80273D75}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="435662304"/>
-        <c:axId val="435661648"/>
+        <c:axId val="509229808"/>
+        <c:axId val="509222264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="435662304"/>
+        <c:axId val="509229808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -441,6 +454,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48543635170603677"/>
+              <c:y val="0.87868037328667248"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -507,12 +528,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435661648"/>
+        <c:crossAx val="509222264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="435661648"/>
+        <c:axId val="509222264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -532,61 +553,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB" altLang="zh-CN"/>
-                  <a:t>scaled speedup</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -624,7 +590,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435662304"/>
+        <c:crossAx val="509229808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1241,22 +1207,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20A69307-D1EA-41BD-9E75-25AE619AE471}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A33AA1AC-D5E4-41A7-95FC-78AEC1E6E1C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,7 +1543,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C24"/>
+      <selection activeCell="A18" sqref="A18:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2122,13 +2088,13 @@
         <v>3.8855840000000001</v>
       </c>
       <c r="D19">
-        <f>B19-(E19/C19)*(B19-1)</f>
+        <f>E19/C19</f>
         <v>1</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>3.8855840000000001</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2143,14 +2109,14 @@
         <v>7.991117</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:D24" si="2">B20-(E20/C20)*(B20-1)</f>
-        <v>1.5137620935846641</v>
-      </c>
-      <c r="E20">
+        <f t="shared" ref="D20:D24" si="2">E20/C20</f>
+        <v>0.48623790641533593</v>
+      </c>
+      <c r="E20" s="1">
         <v>3.8855840000000001</v>
       </c>
-      <c r="F20">
-        <v>2</v>
+      <c r="F20" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -2165,13 +2131,13 @@
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>3.2761241707263031</v>
-      </c>
-      <c r="E21">
+        <v>0.24129194309123228</v>
+      </c>
+      <c r="E21" s="1">
         <v>3.8855840000000001</v>
       </c>
-      <c r="F21">
-        <v>4</v>
+      <c r="F21" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -2186,13 +2152,13 @@
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>5.3610378986861367</v>
-      </c>
-      <c r="E22">
+        <v>0.12779242026277277</v>
+      </c>
+      <c r="E22" s="1">
         <v>3.8855840000000001</v>
       </c>
-      <c r="F22">
-        <v>6</v>
+      <c r="F22" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -2207,13 +2173,13 @@
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>7.3313616526737517</v>
-      </c>
-      <c r="E23">
+        <v>9.5519763903749721E-2</v>
+      </c>
+      <c r="E23" s="1">
         <v>3.8855840000000001</v>
       </c>
-      <c r="F23">
-        <v>8</v>
+      <c r="F23" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -2228,13 +2194,13 @@
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>15.620819551520663</v>
-      </c>
-      <c r="E24">
+        <v>2.5278696565289152E-2</v>
+      </c>
+      <c r="E24" s="1">
         <v>3.8855840000000001</v>
       </c>
-      <c r="F24">
-        <v>16</v>
+      <c r="F24" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
